--- a/public/Excel/5siswa.xlsx
+++ b/public/Excel/5siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell XPS P54G\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53546A-09EF-49F1-B7E5-DDFC587A3B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C8130-0D76-41D9-B99A-246388AC57D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -43,13 +43,7 @@
     <t>Moch Henky Dwi Septian</t>
   </si>
   <si>
-    <t>XI</t>
-  </si>
-  <si>
     <t>Katoh Abi Manyu Saputra</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Yanuar Antama Saia</t>
@@ -440,12 +434,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -462,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,7 +474,7 @@
         <v>1598745632</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -485,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,47 +494,47 @@
         <v>9852364178</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>8546987412</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>7854123695</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -545,118 +543,118 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4582369175</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7854693215</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>8546239715</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>7845693215</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>9513578264</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>7894561235</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -665,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
